--- a/natmiOut/OldD0/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.0665038615161</v>
+        <v>11.921572</v>
       </c>
       <c r="H2">
-        <v>6.0665038615161</v>
+        <v>35.764716</v>
       </c>
       <c r="I2">
-        <v>0.003569819119473183</v>
+        <v>0.006971694289596158</v>
       </c>
       <c r="J2">
-        <v>0.003569819119473183</v>
+        <v>0.006971694289596159</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N2">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q2">
-        <v>65.3463689048273</v>
+        <v>251.3283595177506</v>
       </c>
       <c r="R2">
-        <v>65.3463689048273</v>
+        <v>2261.955235659756</v>
       </c>
       <c r="S2">
-        <v>0.0001086443194010547</v>
+        <v>0.0003985062387875494</v>
       </c>
       <c r="T2">
-        <v>0.0001086443194010547</v>
+        <v>0.0003985062387875495</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.0665038615161</v>
+        <v>11.921572</v>
       </c>
       <c r="H3">
-        <v>6.0665038615161</v>
+        <v>35.764716</v>
       </c>
       <c r="I3">
-        <v>0.003569819119473183</v>
+        <v>0.006971694289596158</v>
       </c>
       <c r="J3">
-        <v>0.003569819119473183</v>
+        <v>0.006971694289596159</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N3">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q3">
-        <v>1806.851129746778</v>
+        <v>3595.547887540371</v>
       </c>
       <c r="R3">
-        <v>1806.851129746778</v>
+        <v>32359.93098786334</v>
       </c>
       <c r="S3">
-        <v>0.00300405538272937</v>
+        <v>0.005701100615121922</v>
       </c>
       <c r="T3">
-        <v>0.00300405538272937</v>
+        <v>0.005701100615121923</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.0665038615161</v>
+        <v>11.921572</v>
       </c>
       <c r="H4">
-        <v>6.0665038615161</v>
+        <v>35.764716</v>
       </c>
       <c r="I4">
-        <v>0.003569819119473183</v>
+        <v>0.006971694289596158</v>
       </c>
       <c r="J4">
-        <v>0.003569819119473183</v>
+        <v>0.006971694289596159</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N4">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q4">
-        <v>274.9439109556389</v>
+        <v>550.0047006391427</v>
       </c>
       <c r="R4">
-        <v>274.9439109556389</v>
+        <v>4950.042305752285</v>
       </c>
       <c r="S4">
-        <v>0.0004571194173427582</v>
+        <v>0.0008720874356866868</v>
       </c>
       <c r="T4">
-        <v>0.0004571194173427582</v>
+        <v>0.0008720874356866869</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1513.20026742069</v>
+        <v>1516.953124666667</v>
       </c>
       <c r="H5">
-        <v>1513.20026742069</v>
+        <v>4550.859374</v>
       </c>
       <c r="I5">
-        <v>0.8904389364190262</v>
+        <v>0.8871089682487887</v>
       </c>
       <c r="J5">
-        <v>0.8904389364190262</v>
+        <v>0.8871089682487888</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N5">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q5">
-        <v>16299.69174321827</v>
+        <v>31980.12311529043</v>
       </c>
       <c r="R5">
-        <v>16299.69174321827</v>
+        <v>287821.1080376139</v>
       </c>
       <c r="S5">
-        <v>0.02709972941982583</v>
+        <v>0.05070768218553173</v>
       </c>
       <c r="T5">
-        <v>0.02709972941982583</v>
+        <v>0.05070768218553174</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1513.20026742069</v>
+        <v>1516.953124666667</v>
       </c>
       <c r="H6">
-        <v>1513.20026742069</v>
+        <v>4550.859374</v>
       </c>
       <c r="I6">
-        <v>0.8904389364190262</v>
+        <v>0.8871089682487887</v>
       </c>
       <c r="J6">
-        <v>0.8904389364190262</v>
+        <v>0.8871089682487888</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N6">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q6">
-        <v>450692.4705128113</v>
+        <v>457513.2879198312</v>
       </c>
       <c r="R6">
-        <v>450692.4705128113</v>
+        <v>4117619.59127848</v>
       </c>
       <c r="S6">
-        <v>0.7493174837206161</v>
+        <v>0.7254330546465059</v>
       </c>
       <c r="T6">
-        <v>0.7493174837206161</v>
+        <v>0.725433054646506</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1513.20026742069</v>
+        <v>1516.953124666667</v>
       </c>
       <c r="H7">
-        <v>1513.20026742069</v>
+        <v>4550.859374</v>
       </c>
       <c r="I7">
-        <v>0.8904389364190262</v>
+        <v>0.8871089682487887</v>
       </c>
       <c r="J7">
-        <v>0.8904389364190262</v>
+        <v>0.8871089682487888</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N7">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q7">
-        <v>68580.71948540521</v>
+        <v>69985.0111391268</v>
       </c>
       <c r="R7">
-        <v>68580.71948540521</v>
+        <v>629865.1002521411</v>
       </c>
       <c r="S7">
-        <v>0.1140217232785843</v>
+        <v>0.1109682314167511</v>
       </c>
       <c r="T7">
-        <v>0.1140217232785843</v>
+        <v>0.1109682314167511</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>180.120132783501</v>
+        <v>181.1216836666667</v>
       </c>
       <c r="H8">
-        <v>180.120132783501</v>
+        <v>543.365051</v>
       </c>
       <c r="I8">
-        <v>0.1059912444615006</v>
+        <v>0.1059193374616151</v>
       </c>
       <c r="J8">
-        <v>0.1059912444615006</v>
+        <v>0.1059193374616151</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N8">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q8">
-        <v>1940.194371048435</v>
+        <v>3818.373586053609</v>
       </c>
       <c r="R8">
-        <v>1940.194371048435</v>
+        <v>34365.36227448249</v>
       </c>
       <c r="S8">
-        <v>0.003225750726185231</v>
+        <v>0.006054413035535218</v>
       </c>
       <c r="T8">
-        <v>0.003225750726185231</v>
+        <v>0.006054413035535219</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>180.120132783501</v>
+        <v>181.1216836666667</v>
       </c>
       <c r="H9">
-        <v>180.120132783501</v>
+        <v>543.365051</v>
       </c>
       <c r="I9">
-        <v>0.1059912444615006</v>
+        <v>0.1059193374616151</v>
       </c>
       <c r="J9">
-        <v>0.1059912444615006</v>
+        <v>0.1059193374616151</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N9">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q9">
-        <v>53647.08781849752</v>
+        <v>54626.32672062363</v>
       </c>
       <c r="R9">
-        <v>53647.08781849752</v>
+        <v>491636.9404856127</v>
       </c>
       <c r="S9">
-        <v>0.08919319376992518</v>
+        <v>0.08661550189555133</v>
       </c>
       <c r="T9">
-        <v>0.08919319376992518</v>
+        <v>0.08661550189555134</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>180.120132783501</v>
+        <v>181.1216836666667</v>
       </c>
       <c r="H10">
-        <v>180.120132783501</v>
+        <v>543.365051</v>
       </c>
       <c r="I10">
-        <v>0.1059912444615006</v>
+        <v>0.1059193374616151</v>
       </c>
       <c r="J10">
-        <v>0.1059912444615006</v>
+        <v>0.1059193374616151</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N10">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q10">
-        <v>8163.340019199842</v>
+        <v>8356.09409600869</v>
       </c>
       <c r="R10">
-        <v>8163.340019199842</v>
+        <v>75204.84686407821</v>
       </c>
       <c r="S10">
-        <v>0.01357229996539015</v>
+        <v>0.01324942253052857</v>
       </c>
       <c r="T10">
-        <v>0.01357229996539015</v>
+        <v>0.01324942253052858</v>
       </c>
     </row>
   </sheetData>
